--- a/Backend/Test_import_data.xlsx
+++ b/Backend/Test_import_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sorra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8CCA0F-C79D-4FE0-A623-BBAA773F8E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554E5064-3F47-4A0B-BA62-EF467DFBA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0D3160F-0CA1-45A6-861A-6C965D95AD18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>THAIYANG บริษัท ไทยยาง อินเตอร์ โอโต้ เทรด จำกัด</t>
   </si>
@@ -65,9 +65,6 @@
     <t>ราคาขายต่อหน่วย</t>
   </si>
   <si>
-    <t>ป้ายราคา</t>
-  </si>
-  <si>
     <t>VB062</t>
   </si>
   <si>
@@ -114,6 +111,27 @@
   </si>
   <si>
     <t>รหัสสินค้าของบริษัทสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>รหัสสินค้าบริษัทที่ผลิต</t>
+  </si>
+  <si>
+    <t>VB066</t>
+  </si>
+  <si>
+    <t>VB067</t>
+  </si>
+  <si>
+    <t>VB068</t>
+  </si>
+  <si>
+    <t>VB052</t>
+  </si>
+  <si>
+    <t>คำอธิบายสินค้า</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -122,7 +140,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="191" formatCode="[$-1070000]d/m/yy;@"/>
+    <numFmt numFmtId="187" formatCode="[$-1070000]d/m/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -174,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -232,13 +250,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -253,12 +295,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,33 +302,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,52 +688,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFD722-D4C0-4846-B746-ABE7C4FA0E41}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -686,7 +755,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,170 +763,202 @@
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="G5" s="4">
         <v>77.5</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="6">
         <v>46.5</v>
       </c>
-      <c r="H5" s="9">
-        <f>F5*D5-G5</f>
+      <c r="I5" s="7">
+        <f>G5*E5-H5</f>
         <v>263.5</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="24">
+        <v>85</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4">
         <v>78.75</v>
       </c>
-      <c r="G6" s="8">
+      <c r="H6" s="6">
         <v>47.25</v>
       </c>
-      <c r="H6" s="9">
-        <f t="shared" ref="H6:H8" si="0">F6*D6-G6</f>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I8" si="0">G6*E6-H6</f>
         <v>267.75</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="24">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
         <v>80</v>
       </c>
-      <c r="G7" s="8">
+      <c r="H7" s="6">
         <v>48</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="24">
+        <v>100</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+    <row r="8" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="E8" s="16">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="F8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="23">
         <v>63.75</v>
       </c>
-      <c r="G8" s="8">
+      <c r="H8" s="17">
         <v>38.25</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
         <v>216.75</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="24">
+        <v>75.5</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="12">
-        <f>SUM(H5:H8)</f>
+    <row r="9" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="9">
+        <f>SUM(I5:I8)</f>
         <v>1020</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{91F326B3-37F2-46E6-9829-A78431046FB5}">
       <formula1>TODAY()</formula1>
     </dataValidation>

--- a/Backend/Test_import_data.xlsx
+++ b/Backend/Test_import_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="Workbook_____________" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sorra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554E5064-3F47-4A0B-BA62-EF467DFBA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ACDD1F-BB31-46EB-9E9B-D91C9517C95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0D3160F-0CA1-45A6-861A-6C965D95AD18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B0D3160F-0CA1-45A6-861A-6C965D95AD18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>THAIYANG บริษัท ไทยยาง อินเตอร์ โอโต้ เทรด จำกัด</t>
   </si>
@@ -132,6 +133,48 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>VB069</t>
+  </si>
+  <si>
+    <t>VB070</t>
+  </si>
+  <si>
+    <t>VB071</t>
+  </si>
+  <si>
+    <t>VB080</t>
+  </si>
+  <si>
+    <t>VB081</t>
+  </si>
+  <si>
+    <t>VB082</t>
+  </si>
+  <si>
+    <t>VB083</t>
+  </si>
+  <si>
+    <t>V-BELT B 80</t>
+  </si>
+  <si>
+    <t>V-BELT B 81</t>
+  </si>
+  <si>
+    <t>V-BELT B 82</t>
+  </si>
+  <si>
+    <t>V-BELT B 83</t>
+  </si>
+  <si>
+    <t>B19Test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vcbfxx</t>
+  </si>
+  <si>
+    <t>อัน</t>
   </si>
 </sst>
 </file>
@@ -142,7 +185,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="187" formatCode="[$-1070000]d/m/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +225,12 @@
       <color theme="1"/>
       <name val="AngsanaUPC"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,8 +739,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -966,4 +1015,273 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D0B0DD-E0AA-4822-A7EA-37F97DB93BB2}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>46.5</v>
+      </c>
+      <c r="I5" s="7">
+        <f>G5*E5-H5</f>
+        <v>263.5</v>
+      </c>
+      <c r="J5" s="24">
+        <v>85</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4">
+        <v>78.75</v>
+      </c>
+      <c r="H6" s="6">
+        <v>47.25</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I8" si="0">G6*E6-H6</f>
+        <v>267.75</v>
+      </c>
+      <c r="J6" s="24">
+        <v>90</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
+        <v>80</v>
+      </c>
+      <c r="H7" s="6">
+        <v>48</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="J7" s="24">
+        <v>100</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="23">
+        <v>63.75</v>
+      </c>
+      <c r="H8" s="17">
+        <v>38.25</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>216.75</v>
+      </c>
+      <c r="J8" s="24">
+        <v>75.5</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="9">
+        <f>SUM(I5:I8)</f>
+        <v>1020</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{14FC4EEA-DC61-409F-B734-8BB9C409AAE3}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Backend/Test_import_data.xlsx
+++ b/Backend/Test_import_data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="Workbook_____________" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sorra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Capstone_Project\Capstone-Warehouse\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ACDD1F-BB31-46EB-9E9B-D91C9517C95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20011C-31F6-4DEB-BBCD-D4821EE5B7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B0D3160F-0CA1-45A6-861A-6C965D95AD18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B0D3160F-0CA1-45A6-861A-6C965D95AD18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>THAIYANG บริษัท ไทยยาง อินเตอร์ โอโต้ เทรด จำกัด</t>
   </si>
@@ -135,46 +136,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>VB069</t>
-  </si>
-  <si>
-    <t>VB070</t>
-  </si>
-  <si>
-    <t>VB071</t>
-  </si>
-  <si>
-    <t>VB080</t>
-  </si>
-  <si>
-    <t>VB081</t>
-  </si>
-  <si>
-    <t>VB082</t>
-  </si>
-  <si>
-    <t>VB083</t>
-  </si>
-  <si>
-    <t>V-BELT B 80</t>
-  </si>
-  <si>
-    <t>V-BELT B 81</t>
-  </si>
-  <si>
-    <t>V-BELT B 82</t>
-  </si>
-  <si>
-    <t>V-BELT B 83</t>
-  </si>
-  <si>
-    <t>B19Test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vcbfxx</t>
-  </si>
-  <si>
-    <t>อัน</t>
+    <t>awfa</t>
   </si>
 </sst>
 </file>
@@ -740,7 +702,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1021,11 +983,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D0B0DD-E0AA-4822-A7EA-37F97DB93BB2}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
@@ -1062,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="1"/>
@@ -1113,19 +1088,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4">
         <v>77.5</v>
@@ -1141,7 +1116,7 @@
         <v>85</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
@@ -1149,13 +1124,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1185,13 +1160,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
@@ -1220,14 +1195,14 @@
       <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
@@ -1277,8 +1252,201 @@
     <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{EF71FC48-900C-468D-88C0-455AD28DADBE}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B730C3-D3F8-4F7D-BCA0-528787C63E41}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="9">
+        <f>SUM(I5:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{14FC4EEA-DC61-409F-B734-8BB9C409AAE3}">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{C8791021-478B-4B8C-80F1-AE19CD9405EB}">
       <formula1>TODAY()</formula1>
     </dataValidation>
   </dataValidations>
